--- a/public/AddInfos/en/3.5.1.xlsx
+++ b/public/AddInfos/en/3.5.1.xlsx
@@ -4,36 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="10800" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gerundet" sheetId="1" r:id="rId1"/>
+    <sheet name="Exakt" sheetId="4" r:id="rId2"/>
+    <sheet name="Daten" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t xml:space="preserve">Copyright: </t>
   </si>
   <si>
-    <t>214 - 254</t>
-  </si>
-  <si>
-    <t>229 - 272</t>
-  </si>
-  <si>
     <t>217 - 258</t>
-  </si>
-  <si>
-    <t>213 - 253</t>
-  </si>
-  <si>
-    <t>223 - 265</t>
   </si>
   <si>
     <t>3.5.1</t>
@@ -43,9 +31,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Treatment demand in facilities for addiction support (substances opioids, cocaine and stimulants) of the age group 18 to 65 years</t>
   </si>
   <si>
     <t>German Monitoring Center for Drugs and Drug Addiction (DBDD)</t>
@@ -66,7 +51,43 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>224 - 266</t>
+    <t>215 - 255</t>
+  </si>
+  <si>
+    <t>231 - 274</t>
+  </si>
+  <si>
+    <t>218 - 259</t>
+  </si>
+  <si>
+    <t>225 - 268</t>
+  </si>
+  <si>
+    <t>215 078 - 255 405</t>
+  </si>
+  <si>
+    <t>231 052 - 274 374</t>
+  </si>
+  <si>
+    <t>218 360 - 259 303</t>
+  </si>
+  <si>
+    <t>215 436 - 255 830</t>
+  </si>
+  <si>
+    <t>230 672 - 273 923</t>
+  </si>
+  <si>
+    <t>225 471 - 267 747</t>
+  </si>
+  <si>
+    <t>225 324 - 267 572</t>
+  </si>
+  <si>
+    <t>217 220 - 257 949</t>
+  </si>
+  <si>
+    <t>Estimate of high risk use (based on treatment entrants) of the substances opioids, cocaine and other stimulants in the age group 15 to under 65 years</t>
   </si>
 </sst>
 </file>
@@ -158,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,9 +199,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -231,9 +249,12 @@
               <a:defRPr sz="1400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1400"/>
-              <a:t>Treatment demand in facilities for addiction support (substances opioids, cocaine and stimulants) of the age group 18 to 65 years</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Estimate of high risk use (based on treatment entrants) of the substances opioids, cocaine and other stimulants in the age group 15 to under 65 years</a:t>
             </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -254,10 +275,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:f>Daten!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -278,36 +299,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$B$1:$B$7</c:f>
+              <c:f>Daten!$B$1:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>229</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,10 +350,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle2!$A$1:$A$7</c:f>
+              <c:f>Daten!$A$1:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2010</c:v>
                 </c:pt>
@@ -347,16 +374,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle2!$C$1:$C$7</c:f>
+              <c:f>Daten!$C$1:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -367,16 +397,19 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,11 +423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176854528"/>
-        <c:axId val="59420032"/>
+        <c:axId val="73700864"/>
+        <c:axId val="48147840"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="176854528"/>
+        <c:axId val="73700864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59420032"/>
+        <c:crossAx val="48147840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59420032"/>
+        <c:axId val="48147840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +495,301 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176854528"/>
+        <c:crossAx val="73700864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Estimate of high risk use (based on treatment entrants) of the substances opioids, cocaine and other stimulants in the age group 15 to under 65 years</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Daten!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$H$1:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>215078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217220</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4C9F38"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Daten!$A$1:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Daten!$I$1:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="73701888"/>
+        <c:axId val="48150720"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="73701888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48150720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48150720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6538264129658503E-2"/>
+              <c:y val="0.49399254040613344"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0;\-#\ ##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -590,6 +917,131 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="911088" y="7810499"/>
+          <a:ext cx="142857" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1201588</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1245"/>
+          <a:ext cx="1971871" cy="713130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>283662</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>184269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="912330" y="7623312"/>
           <a:ext cx="142857" cy="142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,7 +1344,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,23 +1375,23 @@
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -952,7 +1404,7 @@
         <v>2010</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -965,7 +1417,7 @@
         <v>2011</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -978,7 +1430,7 @@
         <v>2012</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -991,7 +1443,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1004,7 +1456,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1017,7 +1469,7 @@
         <v>2015</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1030,7 +1482,7 @@
         <v>2016</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1039,8 +1491,12 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1238,10 +1694,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1251,10 +1707,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="1"/>
@@ -1267,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="1"/>
@@ -1277,14 +1733,14 @@
     </row>
     <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
-      <c r="B37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="B37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1335,135 +1791,650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+    <row r="1" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2010</v>
       </c>
-      <c r="B1">
-        <v>214</v>
-      </c>
-      <c r="C1">
-        <f>D1-B1</f>
-        <v>40</v>
-      </c>
-      <c r="D1">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2011</v>
       </c>
-      <c r="B2">
-        <v>229</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C7" si="0">D2-B2</f>
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>217</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2013</v>
       </c>
-      <c r="B4">
-        <v>213</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>2014</v>
       </c>
-      <c r="B5">
-        <v>229</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>2015</v>
       </c>
-      <c r="B6">
-        <v>224</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D6">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>2016</v>
       </c>
-      <c r="B7">
-        <v>223</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B37:G37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B1">
+        <v>215</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="D1">
+        <v>255</v>
+      </c>
+      <c r="H1">
+        <v>215078</v>
+      </c>
+      <c r="I1">
+        <v>40327</v>
+      </c>
+      <c r="J1">
+        <v>255405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>231</v>
+      </c>
+      <c r="C2">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>274</v>
+      </c>
+      <c r="H2">
+        <v>231052</v>
+      </c>
+      <c r="I2">
+        <v>43322</v>
+      </c>
+      <c r="J2">
+        <v>274374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>218</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>259</v>
+      </c>
+      <c r="H3">
+        <v>218360</v>
+      </c>
+      <c r="I3">
+        <v>40943</v>
+      </c>
+      <c r="J3">
+        <v>259303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>215</v>
+      </c>
+      <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="H4">
+        <v>215436</v>
+      </c>
+      <c r="I4">
+        <v>40394</v>
+      </c>
+      <c r="J4">
+        <v>255830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>231</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>274</v>
+      </c>
+      <c r="H5">
+        <v>230672</v>
+      </c>
+      <c r="I5">
+        <v>43251</v>
+      </c>
+      <c r="J5">
+        <v>273923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+      <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>268</v>
+      </c>
+      <c r="H6">
+        <v>225471</v>
+      </c>
+      <c r="I6">
+        <v>42276</v>
+      </c>
+      <c r="J6">
+        <v>267747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>268</v>
+      </c>
+      <c r="H7">
+        <v>225324</v>
+      </c>
+      <c r="I7">
+        <v>42248</v>
+      </c>
+      <c r="J7">
+        <v>267572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>258</v>
+      </c>
+      <c r="H8">
+        <v>217220</v>
+      </c>
+      <c r="I8">
+        <v>40729</v>
+      </c>
+      <c r="J8">
+        <v>257949</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>